--- a/testTemplate.xlsx
+++ b/testTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbergrj\Coding\quotebuilder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbergrj\OneDrive - Johnson Controls\quoteDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>NXGEN Quote ID:</t>
   </si>
@@ -190,28 +190,25 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Cost - Adds</t>
-  </si>
-  <si>
-    <t>1-14QU268R</t>
-  </si>
-  <si>
-    <t>City of Alexandria</t>
-  </si>
-  <si>
-    <t>Catherine Lee</t>
-  </si>
-  <si>
-    <t>Install ventilation transition APD Server Room</t>
-  </si>
-  <si>
-    <t>$1,273.33</t>
-  </si>
-  <si>
-    <t>Furnish and install fire-rated damper</t>
-  </si>
-  <si>
-    <t>Damper will allow makeup air for temporary cooling to be supplied from atrium &amp; eliminate pressure differential between spaces while the coolers are running</t>
+    <t>1-15701O2C</t>
+  </si>
+  <si>
+    <t>DC National Guard</t>
+  </si>
+  <si>
+    <t>Ronald Fleshman</t>
+  </si>
+  <si>
+    <t>Chiller and Controls Preventive Maintenance at RTI</t>
+  </si>
+  <si>
+    <t>$6,117.27</t>
+  </si>
+  <si>
+    <t>Provide three chiller technician visits to provide PM for installed building mechanical systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide two controls technician visits to provide </t>
   </si>
 </sst>
 </file>
@@ -624,24 +621,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
     </xf>
@@ -649,6 +628,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -661,10 +641,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -697,14 +694,14 @@
         <xdr:from>
           <xdr:col>17</xdr:col>
           <xdr:colOff>3922</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>4482</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>196663</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
           <xdr:colOff>194422</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>194982</xdr:rowOff>
+          <xdr:rowOff>185457</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1005,10 +1002,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1035,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -1044,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1052,10 +1049,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1063,10 +1057,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="1">
-        <v>23227.23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1074,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1082,25 +1073,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="6"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
@@ -1109,10 +1103,7 @@
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="6"/>
+      <c r="C18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1154,47 +1145,47 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="52"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
@@ -1221,35 +1212,35 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="17">
         <f>H5</f>
         <v>1825.8000000000002</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="12" t="s">
         <v>35</v>
       </c>
@@ -1267,42 +1258,42 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="21">
         <f>SUM(H9,H6)</f>
         <v>1825.8000000000002</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
@@ -1324,34 +1315,34 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="12" t="s">
         <v>37</v>
       </c>
@@ -1370,43 +1361,43 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="20">
         <f>SUM(H15:H15)</f>
         <v>615</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="21">
         <f>SUM(H16,H13)</f>
         <v>615</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
@@ -1431,13 +1422,13 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="31"/>
       <c r="H20" s="32">
         <f>H19</f>
@@ -1445,13 +1436,13 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="33"/>
       <c r="H21" s="34">
         <f>H20+H17+H13+H10</f>
@@ -1481,6 +1472,11 @@
     <row r="35" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B20:F20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:B4"/>
@@ -1496,11 +1492,6 @@
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1510,7 +1501,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="2049" r:id="rId4" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>17</xdr:col>
@@ -1520,9 +1511,9 @@
               </from>
               <to>
                 <xdr:col>17</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
